--- a/test/workbooks/toExcel/StyledQuery.expected.xlsx
+++ b/test/workbooks/toExcel/StyledQuery.expected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/proj/bastion/excel2sql/test/workbooks/toExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D55D2B-512A-FC47-96AE-C580295E773A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29809020-B329-6F46-93D2-687CA81DEC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="36420" windowHeight="27520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11120" yWindow="500" windowWidth="28840" windowHeight="27860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,9 @@
     <t>Total Value</t>
   </si>
   <si>
+    <t>Total Inventory Value:</t>
+  </si>
+  <si>
     <t>Widget</t>
   </si>
   <si>
@@ -60,16 +63,13 @@
   </si>
   <si>
     <t>Doohickey</t>
-  </si>
-  <si>
-    <t>Total Inventory Value:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,12 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,14 +482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -503,16 +515,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
         <v>19.989999999999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>150</v>
       </c>
       <c r="E3" s="3">
@@ -521,53 +533,54 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
         <v>24.99</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>75</v>
       </c>
       <c r="E4" s="3">
-        <f>C4*D4</f>
+        <f t="shared" ref="E4:E5" si="0">C4*D4</f>
         <v>1874.2499999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
         <v>14.99</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>200</v>
       </c>
       <c r="E5" s="3">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>2998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
         <v>7246.75</v>
       </c>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E2 A6:E7 A3:D3 A4:D4 A5:D5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E2 A6:E6 A7 C7:E7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>